--- a/experiments/Combined J-K-L.xlsx
+++ b/experiments/Combined J-K-L.xlsx
@@ -110,7 +110,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -167,7 +167,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -344,11 +344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="448721928"/>
-        <c:axId val="413170088"/>
+        <c:axId val="416443288"/>
+        <c:axId val="416446264"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="448721928"/>
+        <c:axId val="416443288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="413170088"/>
+        <c:crossAx val="416446264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -365,7 +365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="413170088"/>
+        <c:axId val="416446264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="448721928"/>
+        <c:crossAx val="416443288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,11 +557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="395591544"/>
-        <c:axId val="472520712"/>
+        <c:axId val="416488024"/>
+        <c:axId val="416491000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="395591544"/>
+        <c:axId val="416488024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472520712"/>
+        <c:crossAx val="416491000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -578,7 +578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472520712"/>
+        <c:axId val="416491000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="395591544"/>
+        <c:crossAx val="416488024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -770,11 +770,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="508806536"/>
-        <c:axId val="508787352"/>
+        <c:axId val="416532600"/>
+        <c:axId val="416535576"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="508806536"/>
+        <c:axId val="416532600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +783,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508787352"/>
+        <c:crossAx val="416535576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +791,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="508787352"/>
+        <c:axId val="416535576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,7 +802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="508806536"/>
+        <c:crossAx val="416532600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -838,6 +838,30 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000"/>
+              <a:t>Motion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="4000" baseline="0"/>
+              <a:t> Trials</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="4000"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -848,7 +872,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>J1</c:v>
+            <c:v>J1 - Slow</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -930,8 +954,18 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>J2</c:v>
+            <c:v>J2 - Slow</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -977,8 +1011,17 @@
           <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
-            <c:v>K1</c:v>
+            <c:v>K1 - Walking</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1024,8 +1067,18 @@
           <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
-            <c:v>K2</c:v>
+            <c:v>K2 - Walking</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1071,8 +1124,17 @@
           <c:idx val="4"/>
           <c:order val="4"/>
           <c:tx>
-            <c:v>L1</c:v>
+            <c:v>L1 - Running</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1118,8 +1180,18 @@
           <c:idx val="5"/>
           <c:order val="5"/>
           <c:tx>
-            <c:v>L2</c:v>
+            <c:v>L2 - Running</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1171,20 +1243,44 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="472509912"/>
-        <c:axId val="472361528"/>
+        <c:axId val="416589528"/>
+        <c:axId val="416592664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="472509912"/>
+        <c:axId val="416589528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>Distance from the</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800" baseline="0"/>
+                  <a:t> Raspberry Pi</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="2800"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472361528"/>
+        <c:crossAx val="416592664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1192,18 +1288,37 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="472361528"/>
+        <c:axId val="416592664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:t>Times Seen (per sec)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="472509912"/>
+        <c:crossAx val="416589528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1212,6 +1327,15 @@
       <c:legendPos val="r"/>
       <c:layout/>
       <c:overlay val="0"/>
+      <c:spPr>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
@@ -1340,8 +1464,8 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
@@ -2081,11 +2205,11 @@
         <v>1389737346.87941</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H10" si="0">G2-F2</f>
         <v>44.894069910049438</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I10" si="1">E2/H2</f>
         <v>25.593580673397554</v>
       </c>
     </row>
@@ -2112,11 +2236,11 @@
         <v>1389737426.7836001</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>45.549240112304688</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="1"/>
         <v>24.918088582851915</v>
       </c>
     </row>
@@ -2143,11 +2267,11 @@
         <v>1389737496.56354</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>41.705120086669922</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="1"/>
         <v>24.433450806096584</v>
       </c>
     </row>
@@ -2174,11 +2298,11 @@
         <v>1389737564.7321501</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>35.223910093307495</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="1"/>
         <v>25.380487221089606</v>
       </c>
     </row>
@@ -2205,11 +2329,11 @@
         <v>1389737635.6352999</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>34.111909866333008</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="1"/>
         <v>21.400150353952437</v>
       </c>
     </row>
@@ -2236,11 +2360,11 @@
         <v>1389737705.12113</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>39.437479972839355</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="1"/>
         <v>19.448504329592915</v>
       </c>
     </row>
@@ -2267,11 +2391,11 @@
         <v>1389737781.11678</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>41.334779977798462</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="1"/>
         <v>18.652572976416369</v>
       </c>
     </row>
@@ -2298,11 +2422,11 @@
         <v>1389737848.00212</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>39.210350036621094</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="1"/>
         <v>18.285988248774803</v>
       </c>
     </row>
@@ -2329,11 +2453,11 @@
         <v>1389737934.72403</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>36.369570016860962</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="1"/>
         <v>17.817092687639327</v>
       </c>
     </row>
@@ -2411,11 +2535,11 @@
         <v>1389822261.3771701</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H10" si="0">G2-F2</f>
         <v>11.628159999847412</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I10" si="1">E2/H2</f>
         <v>28.981369365782911</v>
       </c>
     </row>
@@ -2442,11 +2566,11 @@
         <v>1389822313.6006899</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>13.354449987411499</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="1"/>
         <v>29.428392810670552</v>
       </c>
     </row>
@@ -2473,11 +2597,11 @@
         <v>1389822358.8004601</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>11.800280094146729</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="1"/>
         <v>27.287487875793818</v>
       </c>
     </row>
@@ -2504,11 +2628,11 @@
         <v>1389822407.9216499</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>11.053200006484985</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="1"/>
         <v>31.57456662280963</v>
       </c>
     </row>
@@ -2535,11 +2659,11 @@
         <v>1389822470.0382099</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>12.93339991569519</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="1"/>
         <v>21.881330651236443</v>
       </c>
     </row>
@@ -2566,11 +2690,11 @@
         <v>1389822516.9771399</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>13.769459962844849</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="1"/>
         <v>22.15046928659541</v>
       </c>
     </row>
@@ -2597,11 +2721,11 @@
         <v>1389822631.6564701</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>13.444650173187256</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="1"/>
         <v>20.37985343392867</v>
       </c>
     </row>
@@ -2628,11 +2752,11 @@
         <v>1389822684.0548</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>14.057510137557983</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="1"/>
         <v>16.645906544631494</v>
       </c>
     </row>
@@ -2659,11 +2783,11 @@
         <v>1389822752.4949999</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>11.528219938278198</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="1"/>
         <v>6.1587999170845302</v>
       </c>
     </row>
@@ -2743,11 +2867,11 @@
         <v>1389822866.2230201</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H10" si="0">G2-F2</f>
         <v>14.762470006942749</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I10" si="1">E2/H2</f>
         <v>22.421722099644004</v>
       </c>
     </row>
@@ -2774,11 +2898,11 @@
         <v>1389822950.9939899</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>14.103509902954102</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="1"/>
         <v>26.589125868692658</v>
       </c>
     </row>
@@ -2805,11 +2929,11 @@
         <v>1389823009.95719</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>9.9330301284790039</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="1"/>
         <v>31.410354742151078</v>
       </c>
     </row>
@@ -2836,11 +2960,11 @@
         <v>1389823071.5170801</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>13.866559982299805</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="1"/>
         <v>30.360810506527379</v>
       </c>
     </row>
@@ -2867,11 +2991,11 @@
         <v>1389823122.1626799</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>14.378629922866821</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="1"/>
         <v>21.629320851036454</v>
       </c>
     </row>
@@ -2898,11 +3022,11 @@
         <v>1389823176.6539299</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>14.180670022964478</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="1"/>
         <v>21.649188613996213</v>
       </c>
     </row>
@@ -2929,11 +3053,11 @@
         <v>1389823232.11518</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>14.859620094299316</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="1"/>
         <v>18.775715545179679</v>
       </c>
     </row>
@@ -2960,11 +3084,11 @@
         <v>1389823287.33654</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>16.01882004737854</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="1"/>
         <v>19.16495716238726</v>
       </c>
     </row>
@@ -2991,11 +3115,11 @@
         <v>1389823357.6995101</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>12.893419981002808</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="1"/>
         <v>3.1799165822884454</v>
       </c>
     </row>
@@ -3074,11 +3198,11 @@
         <v>1389823427.97545</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H10" si="0">G2-F2</f>
         <v>7.6318199634552002</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I10" si="1">E2/H2</f>
         <v>22.930310311037683</v>
       </c>
     </row>
@@ -3105,11 +3229,11 @@
         <v>1389823467.5930099</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>5.7087900638580322</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="1"/>
         <v>26.450438413556473</v>
       </c>
     </row>
@@ -3136,11 +3260,11 @@
         <v>1389823695.29932</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>5.3877499103546143</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="1"/>
         <v>28.397754637042858</v>
       </c>
     </row>
@@ -3167,11 +3291,11 @@
         <v>1389823745.4175</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>4.5835199356079102</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="1"/>
         <v>38.834782547180509</v>
       </c>
     </row>
@@ -3198,11 +3322,11 @@
         <v>1389823799.65329</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>6.1546900272369385</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="1"/>
         <v>22.421925294254528</v>
       </c>
     </row>
@@ -3229,11 +3353,11 @@
         <v>1389823848.06091</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>6.4406599998474121</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="1"/>
         <v>18.631630920253976</v>
       </c>
     </row>
@@ -3260,11 +3384,11 @@
         <v>1389823927.1155901</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>5.3165600299835205</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="1"/>
         <v>20.125795513745317</v>
       </c>
     </row>
@@ -3291,11 +3415,11 @@
         <v>1389823977.0465801</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>5.3385601043701172</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="1"/>
         <v>15.172630525166108</v>
       </c>
     </row>
@@ -3322,11 +3446,11 @@
         <v>1389824042.9563899</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>5.555689811706543</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="1"/>
         <v>15.479625917701002</v>
       </c>
     </row>
@@ -3406,11 +3530,11 @@
         <v>1389824187.4734001</v>
       </c>
       <c r="H2" s="1">
-        <f>G2-F2</f>
+        <f t="shared" ref="H2:H10" si="0">G2-F2</f>
         <v>7.7948501110076904</v>
       </c>
       <c r="I2">
-        <f>E2/H2</f>
+        <f t="shared" ref="I2:I10" si="1">E2/H2</f>
         <v>25.144806790218293</v>
       </c>
     </row>
@@ -3437,11 +3561,11 @@
         <v>1389824229.52384</v>
       </c>
       <c r="H3" s="1">
-        <f>G3-F3</f>
+        <f t="shared" si="0"/>
         <v>6.8227300643920898</v>
       </c>
       <c r="I3">
-        <f>E3/H3</f>
+        <f t="shared" si="1"/>
         <v>19.053956227650215</v>
       </c>
     </row>
@@ -3468,11 +3592,11 @@
         <v>1389824275.9788599</v>
       </c>
       <c r="H4" s="1">
-        <f>G4-F4</f>
+        <f t="shared" si="0"/>
         <v>4.4595499038696289</v>
       </c>
       <c r="I4">
-        <f>E4/H4</f>
+        <f t="shared" si="1"/>
         <v>35.653822342481902</v>
       </c>
     </row>
@@ -3499,11 +3623,11 @@
         <v>1389824326.2472</v>
       </c>
       <c r="H5" s="1">
-        <f>G5-F5</f>
+        <f t="shared" si="0"/>
         <v>6.4697201251983643</v>
       </c>
       <c r="I5">
-        <f>E5/H5</f>
+        <f t="shared" si="1"/>
         <v>22.10296538841633</v>
       </c>
     </row>
@@ -3530,11 +3654,11 @@
         <v>1389824372.7651999</v>
       </c>
       <c r="H6" s="1">
-        <f>G6-F6</f>
+        <f t="shared" si="0"/>
         <v>4.1984598636627197</v>
       </c>
       <c r="I6">
-        <f>E6/H6</f>
+        <f t="shared" si="1"/>
         <v>39.776490766380668</v>
       </c>
     </row>
@@ -3561,11 +3685,11 @@
         <v>1389824426.05758</v>
       </c>
       <c r="H7" s="1">
-        <f>G7-F7</f>
+        <f t="shared" si="0"/>
         <v>5.9454898834228516</v>
       </c>
       <c r="I7">
-        <f>E7/H7</f>
+        <f t="shared" si="1"/>
         <v>17.155861333545491</v>
       </c>
     </row>
@@ -3592,11 +3716,11 @@
         <v>1389824494.0699401</v>
       </c>
       <c r="H8" s="1">
-        <f>G8-F8</f>
+        <f t="shared" si="0"/>
         <v>6.7986199855804443</v>
       </c>
       <c r="I8">
-        <f>E8/H8</f>
+        <f t="shared" si="1"/>
         <v>25.299251960663188</v>
       </c>
     </row>
@@ -3623,11 +3747,11 @@
         <v>1389824540.90835</v>
       </c>
       <c r="H9" s="1">
-        <f>G9-F9</f>
+        <f t="shared" si="0"/>
         <v>5.373539924621582</v>
       </c>
       <c r="I9">
-        <f>E9/H9</f>
+        <f t="shared" si="1"/>
         <v>16.934832768811788</v>
       </c>
     </row>
@@ -3654,11 +3778,11 @@
         <v>1389824613.7923601</v>
       </c>
       <c r="H10" s="1">
-        <f>G10-F10</f>
+        <f t="shared" si="0"/>
         <v>5.3055500984191895</v>
       </c>
       <c r="I10">
-        <f>E10/H10</f>
+        <f t="shared" si="1"/>
         <v>16.209440756317438</v>
       </c>
     </row>

--- a/experiments/Combined J-K-L.xlsx
+++ b/experiments/Combined J-K-L.xlsx
@@ -344,11 +344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416443288"/>
-        <c:axId val="416446264"/>
+        <c:axId val="414702744"/>
+        <c:axId val="414705720"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416443288"/>
+        <c:axId val="414702744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416446264"/>
+        <c:crossAx val="414705720"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -365,7 +365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416446264"/>
+        <c:axId val="414705720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416443288"/>
+        <c:crossAx val="414702744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,11 +557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416488024"/>
-        <c:axId val="416491000"/>
+        <c:axId val="414746808"/>
+        <c:axId val="414749784"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416488024"/>
+        <c:axId val="414746808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416491000"/>
+        <c:crossAx val="414749784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -578,7 +578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416491000"/>
+        <c:axId val="414749784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,14 +589,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416488024"/>
+        <c:crossAx val="414746808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -770,11 +769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="416532600"/>
-        <c:axId val="416535576"/>
+        <c:axId val="414790616"/>
+        <c:axId val="414793592"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="416532600"/>
+        <c:axId val="414790616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -783,7 +782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416535576"/>
+        <c:crossAx val="414793592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -791,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416535576"/>
+        <c:axId val="414793592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -802,14 +801,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416532600"/>
+        <c:crossAx val="414790616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -865,8 +863,9 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -874,9 +873,15 @@
           <c:tx>
             <c:v>J1 - Slow</c:v>
           </c:tx>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'J2'!$A$2:$A$10</c:f>
@@ -948,7 +953,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -957,18 +961,17 @@
             <c:v>J2 - Slow</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="40000"/>
+                <a:lumOff val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="40000"/>
-                  <a:lumOff val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'J2'!$I$2:$I$10</c:f>
@@ -1005,7 +1008,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1014,17 +1016,16 @@
             <c:v>K1 - Walking</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'K1'!$I$2:$I$10</c:f>
@@ -1061,7 +1062,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -1070,18 +1070,17 @@
             <c:v>K2 - Walking</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'K2'!$I$2:$I$10</c:f>
@@ -1118,7 +1117,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
@@ -1127,17 +1125,16 @@
             <c:v>L1 - Running</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'L1'!$I$2:$I$10</c:f>
@@ -1174,7 +1171,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
@@ -1183,18 +1179,17 @@
             <c:v>L2 - Running</c:v>
           </c:tx>
           <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
             <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:noFill/>
             </a:ln>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'L2'!$I$2:$I$10</c:f>
@@ -1231,7 +1226,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1241,13 +1235,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="416589528"/>
-        <c:axId val="416592664"/>
-      </c:lineChart>
+        <c:gapWidth val="150"/>
+        <c:axId val="414855272"/>
+        <c:axId val="414861096"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="416589528"/>
+        <c:axId val="414855272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1268,7 +1261,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="2800" baseline="0"/>
-                  <a:t> Raspberry Pi</a:t>
+                  <a:t> Raspberry Pi (feet)</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="2800"/>
               </a:p>
@@ -1280,7 +1273,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416592664"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414861096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1288,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="416592664"/>
+        <c:axId val="414861096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1306,7 +1309,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="2800"/>
-                  <a:t>Times Seen (per sec)</a:t>
+                  <a:t>Times seen per second</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1318,7 +1321,17 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="416589528"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="414855272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1329,13 +1342,19 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent2">
-              <a:lumMod val="75000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>

--- a/experiments/Combined J-K-L.xlsx
+++ b/experiments/Combined J-K-L.xlsx
@@ -344,11 +344,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414702744"/>
-        <c:axId val="414705720"/>
+        <c:axId val="415333304"/>
+        <c:axId val="415341864"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414702744"/>
+        <c:axId val="415333304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -357,7 +357,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414705720"/>
+        <c:crossAx val="415341864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -365,7 +365,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414705720"/>
+        <c:axId val="415341864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -376,7 +376,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414702744"/>
+        <c:crossAx val="415333304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -557,11 +557,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414746808"/>
-        <c:axId val="414749784"/>
+        <c:axId val="415393176"/>
+        <c:axId val="415396152"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414746808"/>
+        <c:axId val="415393176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -570,7 +570,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414749784"/>
+        <c:crossAx val="415396152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -578,7 +578,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414749784"/>
+        <c:axId val="415396152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -589,7 +589,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414746808"/>
+        <c:crossAx val="415393176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,11 +769,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="414790616"/>
-        <c:axId val="414793592"/>
+        <c:axId val="415437048"/>
+        <c:axId val="415440024"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="414790616"/>
+        <c:axId val="415437048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,7 +782,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414793592"/>
+        <c:crossAx val="415440024"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -790,7 +790,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414793592"/>
+        <c:axId val="415440024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="414790616"/>
+        <c:crossAx val="415437048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -843,22 +843,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr sz="1800"/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="4000"/>
+              <a:rPr lang="en-US" sz="1800"/>
               <a:t>Motion</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-US" sz="4000" baseline="0"/>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
               <a:t> Trials</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="4000"/>
+            <a:endParaRPr lang="en-US" sz="1800"/>
           </a:p>
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
@@ -1236,11 +1236,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="414855272"/>
-        <c:axId val="414861096"/>
+        <c:axId val="414658392"/>
+        <c:axId val="414664264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="414855272"/>
+        <c:axId val="414658392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,17 +1253,17 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Distance from the</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800" baseline="0"/>
+                  <a:rPr lang="en-US" sz="1000" baseline="0"/>
                   <a:t> Raspberry Pi (feet)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2800"/>
+                <a:endParaRPr lang="en-US" sz="1000"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -1278,12 +1278,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414861096"/>
+        <c:crossAx val="414664264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1291,7 +1291,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="414861096"/>
+        <c:axId val="414664264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1305,10 +1305,10 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr sz="1000"/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2800"/>
+                  <a:rPr lang="en-US" sz="1000"/>
                   <a:t>Times seen per second</a:t>
                 </a:r>
               </a:p>
@@ -1326,12 +1326,12 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600"/>
+              <a:defRPr sz="1000"/>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="414855272"/>
+        <c:crossAx val="414658392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1350,7 +1350,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600"/>
+            <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1483,10 +1483,10 @@
       <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
